--- a/ugv/parts_list.xlsx
+++ b/ugv/parts_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuma/github/picam360-hardware/nekojara/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takuma/github/picam360-hardware/ugv/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="aqua360" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -45,14 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M2.6x10MF spacer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>arm.stl</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,22 +100,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slipring_filling.stl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mobility_base.stl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Fixing Parts</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tapping neji M3x6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>M2.6x7F spacer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,11 +248,92 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HBB1-48</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unihobby</t>
+    <t>mobility_base_upper.stl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mobility_base_bottom.stl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mobility_base_attachment.stl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2.6x11MF spacer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.okmodel.co.jp/direct/391_1862.html</t>
+  </si>
+  <si>
+    <t>http://www.nexusrobot.com/product/38mm1-5-inch-double-plastic-omni-wheel-14184.html</t>
+  </si>
+  <si>
+    <t>TT motor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TGP01D-A130</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.ttmotor.com/productshow.php?sid=212&amp;id=118</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.fulaser.com/html/en/product/Red_laser/Red_dot/20120915302.html</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>40pin((20x2) 2.54pitch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-00085/</t>
+  </si>
+  <si>
+    <t>tapping neji M2.6x6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5mm spring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/download/ds/sanyos/MDP-35A.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -343,7 +404,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -366,8 +427,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -377,8 +534,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -390,19 +554,250 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="16">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Yu Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -410,6 +805,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:G46" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:G46"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="列1" dataDxfId="6"/>
+    <tableColumn id="2" name="列2" dataDxfId="5"/>
+    <tableColumn id="3" name="列3" dataDxfId="4"/>
+    <tableColumn id="4" name="列4" dataDxfId="3"/>
+    <tableColumn id="5" name="列5" dataDxfId="2"/>
+    <tableColumn id="6" name="列6" dataDxfId="1"/>
+    <tableColumn id="7" name="列7" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,97 +1086,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="8"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>102</v>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>103</v>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>104</v>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -773,14 +1199,15 @@
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>105</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
+      <c r="G6" s="12"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -788,29 +1215,31 @@
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>106</v>
+      <c r="G7" s="12"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>105</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>107</v>
+      <c r="G8" s="12"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>106</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -818,29 +1247,31 @@
       <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>108</v>
+      <c r="G9" s="12"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>107</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>109</v>
+      <c r="G10" s="12"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>108</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -848,14 +1279,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>110</v>
+      <c r="G11" s="12"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>109</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -863,29 +1295,31 @@
       <c r="D12" s="8"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>111</v>
+      <c r="G12" s="12"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>110</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>112</v>
+      <c r="G13" s="12"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>111</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -893,44 +1327,46 @@
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>113</v>
+      <c r="G14" s="12"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>114</v>
+      <c r="G15" s="12"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>115</v>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -938,65 +1374,70 @@
       <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>115</v>
+      </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>201</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>116</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>202</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="8"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>203</v>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>201</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>204</v>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>202</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -1004,13 +1445,14 @@
       <c r="D22" s="8"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>205</v>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -1018,49 +1460,55 @@
       <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>204</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>301</v>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>205</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>302</v>
-      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="8"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>301</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1068,286 +1516,379 @@
       <c r="D27" s="8"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>401</v>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>302</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>303</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>401</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <v>402</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>403</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>404</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>405</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>406</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>407</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>408</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1">
+        <v>100</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>409</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>18742</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>410</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>501</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>403</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>404</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="F42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>502</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>503</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>405</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>406</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="E44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>504</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="19">
         <v>4</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>407</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>408</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1">
-        <v>100</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>409</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8">
-        <v>18742</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>501</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="D45" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>505</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="19">
         <v>2</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>502</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>503</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>504</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="1"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F45" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>